--- a/files/excelFilesforFigures/Figure10.xlsx
+++ b/files/excelFilesforFigures/Figure10.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20404"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20408"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{662BD3A5-FAD3-4BA5-926C-BF4DA868F83A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C8CFD34-E4F9-4CD1-8B43-B57DD496039E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="8130" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="14">
   <si>
     <t>UBF</t>
   </si>
@@ -46,9 +46,6 @@
     <t>SUT1-HARF/OARF</t>
   </si>
   <si>
-    <t>SUT2-HARF/OARF</t>
-  </si>
-  <si>
     <t>TPAT</t>
   </si>
   <si>
@@ -58,10 +55,13 @@
     <t>SUT1</t>
   </si>
   <si>
-    <t>SUT2</t>
+    <t>DO NOT ERASE BELOW</t>
   </si>
   <si>
-    <t>DO NOT ERASE BELOW</t>
+    <t>SUT2-HARF</t>
+  </si>
+  <si>
+    <t>SUT2-OARF</t>
   </si>
 </sst>
 </file>
@@ -150,7 +150,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Feuil1!$A$7</c:f>
+              <c:f>Feuil1!$A$8</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -185,7 +185,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Feuil1!$B$6:$F$6</c:f>
+              <c:f>Feuil1!$B$7:$F$7</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -208,24 +208,24 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Feuil1!$B$7:$F$7</c:f>
+              <c:f>Feuil1!$B$8:$F$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>2</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.8270768590255844</c:v>
+                  <c:v>6.2939074106240103</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9.6551724137930997</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>10</c:v>
+                  <c:v>8.9649019086198205</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7.669904079413298</c:v>
+                  <c:v>7.3423791752501941</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -241,11 +241,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Feuil1!$A$8</c:f>
+              <c:f>Feuil1!$A$9</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>SUT2-HARF/OARF</c:v>
+                  <c:v>SUT2-HARF</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -276,7 +276,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Feuil1!$B$6:$F$6</c:f>
+              <c:f>Feuil1!$B$7:$F$7</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -299,24 +299,24 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Feuil1!$B$8:$F$8</c:f>
+              <c:f>Feuil1!$B$9:$F$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>10</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10</c:v>
+                  <c:v>8.8367414120276866</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>10</c:v>
+                  <c:v>8.7069767441860435</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>10</c:v>
+                  <c:v>8.9699527415114026</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>10</c:v>
+                  <c:v>8.7496364709142842</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -324,6 +324,97 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-E20E-4AA6-8EEE-5ED36BC62115}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Feuil1!$A$10</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>SUT2-OARF</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Feuil1!$B$7:$F$7</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>ARF</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>LUBF (normalized)</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>SSR (normalized)</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>FTS(normalized)</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>TPAT(normalized)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Feuil1!$B$10:$F$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.748837209302323</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-1CB7-4B01-BAA5-B9C396742660}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1079,13 +1170,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>10</xdr:row>
       <xdr:rowOff>109536</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>1285875</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -1377,10 +1468,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:F3"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1388,7 +1479,7 @@
     <col min="6" max="6" width="20.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>2</v>
       </c>
@@ -1402,119 +1493,168 @@
         <v>5</v>
       </c>
       <c r="F1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C2">
-        <v>147.41979322106101</v>
+        <v>5301.2483210745104</v>
       </c>
       <c r="D2">
-        <v>0.77241379310344804</v>
+        <v>0.74137931034482696</v>
       </c>
       <c r="E2">
-        <v>0.83165268788143898</v>
+        <v>0.77732082744372699</v>
       </c>
       <c r="F2">
-        <v>1687.28986111111</v>
+        <v>10078.146944444399</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>12</v>
       </c>
       <c r="B3">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C3">
-        <v>385.20207106213098</v>
+        <v>7443.0330028698099</v>
       </c>
       <c r="D3">
-        <v>0.8</v>
+        <v>0.71724137931034404</v>
       </c>
       <c r="E3">
-        <v>0.81873596871144805</v>
+        <v>0.77775877061840804</v>
       </c>
       <c r="F3">
-        <v>1294.13513888888</v>
+        <v>8457.2172222222198</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>13</v>
       </c>
+      <c r="B4">
+        <v>8</v>
+      </c>
+      <c r="C4">
+        <v>7580.5428610428598</v>
+      </c>
+      <c r="D4">
+        <v>0.72068965517241301</v>
+      </c>
+      <c r="E4">
+        <v>0.78036408187210005</v>
+      </c>
+      <c r="F4">
+        <v>8221.9529166666598</v>
+      </c>
+      <c r="H4">
+        <f>(F3-F4)/F3</f>
+        <v>2.7818169898412744E-2</v>
+      </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
         <v>2</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C7" t="s">
         <v>4</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D7" t="s">
         <v>3</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E7" t="s">
         <v>6</v>
       </c>
-      <c r="F6" t="s">
-        <v>10</v>
+      <c r="F7" t="s">
+        <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>7</v>
       </c>
-      <c r="B7">
+      <c r="B8">
         <f>B2</f>
-        <v>2</v>
-      </c>
-      <c r="C7">
-        <f>C2/MAX(C$2:C$3)*10</f>
-        <v>3.8270768590255844</v>
-      </c>
-      <c r="D7">
-        <f>D2/MAX(D$2:D$3)*10</f>
-        <v>9.6551724137930997</v>
-      </c>
-      <c r="E7">
-        <f>E2/MAX(E2:E3)*10</f>
-        <v>10</v>
-      </c>
-      <c r="F7">
-        <f>MIN(F$2:F$3)/F2*10</f>
-        <v>7.669904079413298</v>
+        <v>3</v>
+      </c>
+      <c r="C8">
+        <f>C2/MAX(C$2:C$4)*MAX($B$8:$B$10)</f>
+        <v>6.2939074106240103</v>
+      </c>
+      <c r="D8">
+        <f>D2/MAX(D$2:D$4)*MAX($B$8:$B$10)</f>
+        <v>9</v>
+      </c>
+      <c r="E8">
+        <f>E2/MAX(E2:E4)*MAX($B$8:$B$10)</f>
+        <v>8.9649019086198205</v>
+      </c>
+      <c r="F8">
+        <f>MIN(F$2:F$4)/F2*MAX($B$8:$B$10)</f>
+        <v>7.3423791752501941</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9">
+        <f>B3</f>
+        <v>9</v>
+      </c>
+      <c r="C9">
+        <f t="shared" ref="C9:D10" si="0">C3/MAX(C$2:C$4)*MAX($B$8:$B$10)</f>
+        <v>8.8367414120276866</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="0"/>
+        <v>8.7069767441860435</v>
+      </c>
+      <c r="E9">
+        <f t="shared" ref="E9:E10" si="1">E3/MAX(E3:E5)*MAX($B$8:$B$10)</f>
+        <v>8.9699527415114026</v>
+      </c>
+      <c r="F9">
+        <f t="shared" ref="F9:F10" si="2">MIN(F$2:F$4)/F3*MAX($B$8:$B$10)</f>
+        <v>8.7496364709142842</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10">
+        <f>B4</f>
         <v>8</v>
       </c>
-      <c r="B8">
-        <f>B3</f>
-        <v>10</v>
-      </c>
-      <c r="C8">
-        <f>C3/MAX(C$2:C$3)*10</f>
-        <v>10</v>
-      </c>
-      <c r="D8">
-        <f>D3/MAX(D$2:D$3)*10</f>
-        <v>10</v>
-      </c>
-      <c r="E8">
-        <f>E3/MAX(E3:E4)*10</f>
-        <v>10</v>
-      </c>
-      <c r="F8">
-        <f>MIN(F$2:F$3)/F3*10</f>
-        <v>10</v>
+      <c r="C10">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="0"/>
+        <v>8.748837209302323</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="2"/>
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/files/excelFilesforFigures/Figure10.xlsx
+++ b/files/excelFilesforFigures/Figure10.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20408"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20416"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C8CFD34-E4F9-4CD1-8B43-B57DD496039E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26A7FDC0-F060-44FA-9A2B-0CAE01AC9B07}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="8130" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,10 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="14">
-  <si>
-    <t>UBF</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>SSR</t>
   </si>
@@ -31,53 +28,18 @@
     <t>ARF</t>
   </si>
   <si>
-    <t>SSR (normalized)</t>
-  </si>
-  <si>
-    <t>LUBF (normalized)</t>
-  </si>
-  <si>
-    <t>FTS</t>
-  </si>
-  <si>
-    <t>FTS(normalized)</t>
-  </si>
-  <si>
-    <t>SUT1-HARF/OARF</t>
+    <t>LUBF</t>
   </si>
   <si>
     <t>TPAT</t>
-  </si>
-  <si>
-    <t>TPAT(normalized)</t>
-  </si>
-  <si>
-    <t>SUT1</t>
-  </si>
-  <si>
-    <t>DO NOT ERASE BELOW</t>
-  </si>
-  <si>
-    <t>SUT2-HARF</t>
-  </si>
-  <si>
-    <t>SUT2-OARF</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -107,7 +69,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -141,20 +103,202 @@
   <c:chart>
     <c:autoTitleDeleted val="1"/>
     <c:plotArea>
-      <c:layout/>
-      <c:radarChart>
-        <c:radarStyle val="marker"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.12378070190890568"/>
+          <c:y val="5.2101825689743135E-2"/>
+          <c:w val="0.74598061148396722"/>
+          <c:h val="0.80510113050146048"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Feuil1!$D$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>TPAT</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Feuil1!$A$3:$A$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Feuil1!$D$3:$D$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>6921</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6702</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4733</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4495</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4063</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3839</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3811</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3932</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3803</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3742</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3719</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3600</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3693</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3625</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3832</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3692</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3692</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3533</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-A401-4FBE-A3E4-F26447B35342}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:axId val="1239570336"/>
+        <c:axId val="1160487456"/>
+      </c:barChart>
+      <c:lineChart>
+        <c:grouping val="stacked"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Feuil1!$A$8</c:f>
+              <c:f>Feuil1!$C$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>SUT1-HARF/OARF</c:v>
+                  <c:v>SSR</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -184,237 +328,135 @@
             </c:spPr>
           </c:marker>
           <c:cat>
-            <c:strRef>
-              <c:f>Feuil1!$B$7:$F$7</c:f>
-              <c:strCache>
-                <c:ptCount val="5"/>
+            <c:numRef>
+              <c:f>Feuil1!$A$3:$A$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
-                  <c:v>ARF</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>LUBF (normalized)</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>SSR (normalized)</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>FTS(normalized)</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>TPAT(normalized)</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Feuil1!$B$8:$F$8</c:f>
+              <c:f>Feuil1!$C$3:$C$20</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
-                  <c:v>3</c:v>
+                  <c:v>0.98</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.2939074106240103</c:v>
+                  <c:v>0.96</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9</c:v>
+                  <c:v>0.8</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8.9649019086198205</c:v>
+                  <c:v>0.78</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7.3423791752501941</c:v>
+                  <c:v>0.76</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.74</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.72</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.72</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.72</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.69</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.68</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.69</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.67</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.69</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.68</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.67</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.66</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-E20E-4AA6-8EEE-5ED36BC62115}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Feuil1!$A$9</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>SUT2-HARF</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="square"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>Feuil1!$B$7:$F$7</c:f>
-              <c:strCache>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>ARF</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>LUBF (normalized)</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>SSR (normalized)</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>FTS(normalized)</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>TPAT(normalized)</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Feuil1!$B$9:$F$9</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>8.8367414120276866</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>8.7069767441860435</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>8.9699527415114026</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>8.7496364709142842</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-E20E-4AA6-8EEE-5ED36BC62115}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Feuil1!$A$10</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>SUT2-OARF</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent3"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>Feuil1!$B$7:$F$7</c:f>
-              <c:strCache>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>ARF</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>LUBF (normalized)</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>SSR (normalized)</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>FTS(normalized)</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>TPAT(normalized)</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Feuil1!$B$10:$F$10</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>8.748837209302323</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>9</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-1CB7-4B01-BAA5-B9C396742660}"/>
+              <c16:uniqueId val="{00000000-A401-4FBE-A3E4-F26447B35342}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -426,16 +468,73 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="976732784"/>
-        <c:axId val="1052710768"/>
-      </c:radarChart>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1239586736"/>
+        <c:axId val="1160479136"/>
+      </c:lineChart>
       <c:catAx>
-        <c:axId val="976732784"/>
+        <c:axId val="1239570336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="650" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="fr-FR"/>
+                  <a:t>ARF (Arrival Rate Factor)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="650" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="fr-FR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -458,7 +557,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="650" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -473,7 +572,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1052710768"/>
+        <c:crossAx val="1160487456"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -481,7 +580,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1052710768"/>
+        <c:axId val="1160487456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -501,6 +600,69 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="650" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="fr-FR"/>
+                  <a:t>TPAT (Total Payment of All Tenants)</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="fr-FR" baseline="0"/>
+                  <a:t> in </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="fr-FR"/>
+                  <a:t>cents </a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="650" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="fr-FR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -517,7 +679,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="650" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -532,10 +694,126 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="976732784"/>
+        <c:crossAx val="1239570336"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
+      <c:valAx>
+        <c:axId val="1160479136"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="650" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="fr-FR"/>
+                  <a:t>SSR (SLO Satisfaction Rate)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="650" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="fr-FR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="650" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1239586736"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:catAx>
+        <c:axId val="1239586736"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="1160479136"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -545,7 +823,17 @@
       </c:spPr>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="t"/>
+      <c:legendPos val="b"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.56118092620972715"/>
+          <c:y val="7.1057640954645659E-2"/>
+          <c:w val="0.27137416547763743"/>
+          <c:h val="6.2157440752354839E-2"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -559,7 +847,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="650" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -606,7 +894,10 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr/>
+        <a:defRPr sz="650">
+          <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+        </a:defRPr>
       </a:pPr>
       <a:endParaRPr lang="fr-FR"/>
     </a:p>
@@ -660,7 +951,7 @@
 </file>
 
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="317">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -864,23 +1155,22 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -985,8 +1275,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -1118,20 +1408,19 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -1168,23 +1457,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>495301</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>109536</xdr:rowOff>
+      <xdr:rowOff>23813</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>1285875</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="11" name="Graphique 10">
+        <xdr:cNvPr id="3" name="Graphique 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F6CD7084-7C28-4D9D-86D6-BAAD41CF47FE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6AF63355-5A4C-4B6F-83FB-7A30284F7856}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1468,196 +1757,313 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="P31" sqref="P31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="6" max="6" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B1" t="s">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
         <v>2</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C2" t="s">
         <v>0</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A3">
         <v>1</v>
       </c>
-      <c r="E1" t="s">
+      <c r="B3">
+        <v>778</v>
+      </c>
+      <c r="C3" s="1">
+        <v>0.98</v>
+      </c>
+      <c r="D3">
+        <v>6921</v>
+      </c>
+      <c r="Q3" s="1"/>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>2022</v>
+      </c>
+      <c r="C4" s="1">
+        <v>0.96</v>
+      </c>
+      <c r="D4">
+        <v>6702</v>
+      </c>
+      <c r="Q4" s="1"/>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>2175</v>
+      </c>
+      <c r="C5" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="D5">
+        <v>4733</v>
+      </c>
+      <c r="Q5" s="1"/>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>2854</v>
+      </c>
+      <c r="C6" s="1">
+        <v>0.78</v>
+      </c>
+      <c r="D6">
+        <v>4495</v>
+      </c>
+      <c r="Q6" s="1"/>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A7">
         <v>5</v>
       </c>
-      <c r="F1" t="s">
+      <c r="B7">
+        <v>2786</v>
+      </c>
+      <c r="C7" s="1">
+        <v>0.76</v>
+      </c>
+      <c r="D7">
+        <v>4063</v>
+      </c>
+      <c r="Q7" s="1"/>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>2723</v>
+      </c>
+      <c r="C8" s="1">
+        <v>0.74</v>
+      </c>
+      <c r="D8">
+        <v>3839</v>
+      </c>
+      <c r="Q8" s="1"/>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>2934</v>
+      </c>
+      <c r="C9" s="1">
+        <v>0.72</v>
+      </c>
+      <c r="D9">
+        <v>3811</v>
+      </c>
+      <c r="Q9" s="1"/>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A10">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="B10">
+        <v>3314</v>
+      </c>
+      <c r="C10" s="1">
+        <v>0.72</v>
+      </c>
+      <c r="D10">
+        <v>3932</v>
+      </c>
+      <c r="Q10" s="1"/>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>3022</v>
+      </c>
+      <c r="C11" s="1">
+        <v>0.72</v>
+      </c>
+      <c r="D11">
+        <v>3803</v>
+      </c>
+      <c r="Q11" s="1"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A12">
         <v>10</v>
       </c>
-      <c r="B2">
-        <v>3</v>
-      </c>
-      <c r="C2">
-        <v>5301.2483210745104</v>
-      </c>
-      <c r="D2">
-        <v>0.74137931034482696</v>
-      </c>
-      <c r="E2">
-        <v>0.77732082744372699</v>
-      </c>
-      <c r="F2">
-        <v>10078.146944444399</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="B12">
+        <v>3302</v>
+      </c>
+      <c r="C12" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="D12">
+        <v>3742</v>
+      </c>
+      <c r="Q12" s="1"/>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>3328</v>
+      </c>
+      <c r="C13" s="1">
+        <v>0.69</v>
+      </c>
+      <c r="D13">
+        <v>3719</v>
+      </c>
+      <c r="Q13" s="1"/>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A14">
         <v>12</v>
       </c>
-      <c r="B3">
-        <v>9</v>
-      </c>
-      <c r="C3">
-        <v>7443.0330028698099</v>
-      </c>
-      <c r="D3">
-        <v>0.71724137931034404</v>
-      </c>
-      <c r="E3">
-        <v>0.77775877061840804</v>
-      </c>
-      <c r="F3">
-        <v>8457.2172222222198</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="B14">
+        <v>3179</v>
+      </c>
+      <c r="C14" s="1">
+        <v>0.68</v>
+      </c>
+      <c r="D14">
+        <v>3600</v>
+      </c>
+      <c r="Q14" s="1"/>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A15">
         <v>13</v>
       </c>
-      <c r="B4">
-        <v>8</v>
-      </c>
-      <c r="C4">
-        <v>7580.5428610428598</v>
-      </c>
-      <c r="D4">
-        <v>0.72068965517241301</v>
-      </c>
-      <c r="E4">
-        <v>0.78036408187210005</v>
-      </c>
-      <c r="F4">
-        <v>8221.9529166666598</v>
-      </c>
-      <c r="H4">
-        <f>(F3-F4)/F3</f>
-        <v>2.7818169898412744E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
-        <v>2</v>
-      </c>
-      <c r="C7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D7" t="s">
-        <v>3</v>
-      </c>
-      <c r="E7" t="s">
-        <v>6</v>
-      </c>
-      <c r="F7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8">
-        <f>B2</f>
-        <v>3</v>
-      </c>
-      <c r="C8">
-        <f>C2/MAX(C$2:C$4)*MAX($B$8:$B$10)</f>
-        <v>6.2939074106240103</v>
-      </c>
-      <c r="D8">
-        <f>D2/MAX(D$2:D$4)*MAX($B$8:$B$10)</f>
-        <v>9</v>
-      </c>
-      <c r="E8">
-        <f>E2/MAX(E2:E4)*MAX($B$8:$B$10)</f>
-        <v>8.9649019086198205</v>
-      </c>
-      <c r="F8">
-        <f>MIN(F$2:F$4)/F2*MAX($B$8:$B$10)</f>
-        <v>7.3423791752501941</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9">
-        <f>B3</f>
-        <v>9</v>
-      </c>
-      <c r="C9">
-        <f t="shared" ref="C9:D10" si="0">C3/MAX(C$2:C$4)*MAX($B$8:$B$10)</f>
-        <v>8.8367414120276866</v>
-      </c>
-      <c r="D9">
-        <f t="shared" si="0"/>
-        <v>8.7069767441860435</v>
-      </c>
-      <c r="E9">
-        <f t="shared" ref="E9:E10" si="1">E3/MAX(E3:E5)*MAX($B$8:$B$10)</f>
-        <v>8.9699527415114026</v>
-      </c>
-      <c r="F9">
-        <f t="shared" ref="F9:F10" si="2">MIN(F$2:F$4)/F3*MAX($B$8:$B$10)</f>
-        <v>8.7496364709142842</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>13</v>
-      </c>
-      <c r="B10">
-        <f>B4</f>
-        <v>8</v>
-      </c>
-      <c r="C10">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="D10">
-        <f t="shared" si="0"/>
-        <v>8.748837209302323</v>
-      </c>
-      <c r="E10">
-        <f t="shared" si="1"/>
-        <v>9</v>
-      </c>
-      <c r="F10">
-        <f t="shared" si="2"/>
-        <v>9</v>
-      </c>
+      <c r="B15">
+        <v>3472</v>
+      </c>
+      <c r="C15" s="1">
+        <v>0.69</v>
+      </c>
+      <c r="D15">
+        <v>3693</v>
+      </c>
+      <c r="Q15" s="1"/>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>14</v>
+      </c>
+      <c r="B16">
+        <v>3444</v>
+      </c>
+      <c r="C16" s="1">
+        <v>0.67</v>
+      </c>
+      <c r="D16">
+        <v>3625</v>
+      </c>
+      <c r="Q16" s="1"/>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>15</v>
+      </c>
+      <c r="B17">
+        <v>3781</v>
+      </c>
+      <c r="C17" s="1">
+        <v>0.69</v>
+      </c>
+      <c r="D17">
+        <v>3832</v>
+      </c>
+      <c r="Q17" s="1"/>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>16</v>
+      </c>
+      <c r="B18">
+        <v>3519</v>
+      </c>
+      <c r="C18" s="1">
+        <v>0.68</v>
+      </c>
+      <c r="D18">
+        <v>3692</v>
+      </c>
+      <c r="Q18" s="1"/>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>17</v>
+      </c>
+      <c r="B19">
+        <v>3513</v>
+      </c>
+      <c r="C19" s="1">
+        <v>0.67</v>
+      </c>
+      <c r="D19">
+        <v>3692</v>
+      </c>
+      <c r="Q19" s="1"/>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>18</v>
+      </c>
+      <c r="B20">
+        <v>3373</v>
+      </c>
+      <c r="C20" s="1">
+        <v>0.66</v>
+      </c>
+      <c r="D20">
+        <v>3533</v>
+      </c>
+      <c r="Q20" s="1"/>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="C21" s="1"/>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="C22" s="1"/>
     </row>
   </sheetData>
+  <sortState ref="A3:C8">
+    <sortCondition ref="A3:A8"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
